--- a/data/trans_camb/DCD-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Estudios-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>-2.880383017829305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18.99371480149602</v>
+        <v>18.99371480149603</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-1.744146094257687</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.506141711200129</v>
+        <v>-3.155396759889014</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.81605167103667</v>
+        <v>8.647314269988621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.655207166266444</v>
+        <v>-6.845409838815981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.43855339435944</v>
+        <v>15.4318617896495</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.137770598538971</v>
+        <v>-4.132650484470254</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>13.70806919125983</v>
+        <v>13.65524141701949</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.893312126387726</v>
+        <v>3.21548103795792</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.40764091977805</v>
+        <v>16.56705947979869</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7249177673455428</v>
+        <v>0.6543213532008577</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.48925685725477</v>
+        <v>22.8236674747975</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8823801093327368</v>
+        <v>0.9512275873552846</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.03898679715683</v>
+        <v>19.30903707746995</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>-0.1188382471200746</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.7836387589208336</v>
+        <v>0.7836387589208338</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.0907843023199625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8532948450825467</v>
+        <v>0.8532948450825465</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2503442914061961</v>
+        <v>-0.2322507312902727</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.6672451300495116</v>
+        <v>0.6074700307608339</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2596976203422405</v>
+        <v>-0.2732274362819017</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5880758146705791</v>
+        <v>0.6036952769370472</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2025160449349895</v>
+        <v>-0.2055281226595825</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6589301950678418</v>
+        <v>0.6819365674054193</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2732639054677592</v>
+        <v>0.290458609602205</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.52988127939141</v>
+        <v>1.556759397338518</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03349379822978864</v>
+        <v>0.02903183382261917</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.002786953564927</v>
+        <v>1.007458463426924</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04967000924992377</v>
+        <v>0.05079418288923508</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.050964474938189</v>
+        <v>1.07468506825116</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>0.3639548156851719</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.535714840067223</v>
+        <v>6.535714840067222</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-1.483514198315253</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9974940183542252</v>
+        <v>-1.072326371913636</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.7843380510689</v>
+        <v>4.784260439208457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.458692104503859</v>
+        <v>-3.613485317716202</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.451054121031799</v>
+        <v>8.143863150973148</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.727213103282713</v>
+        <v>-1.704894583814476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.289831364095494</v>
+        <v>7.13248784388535</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.976869438374899</v>
+        <v>1.826145241803413</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.205892177681987</v>
+        <v>7.922863479276129</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7139153884177073</v>
+        <v>0.7015091298795865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.07163864550397</v>
+        <v>12.91624026387795</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8634184456631016</v>
+        <v>0.8812500243402915</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.03935648811166</v>
+        <v>10.04152852593141</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1814133797504853</v>
+        <v>-0.1882750182479535</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.8318397580311649</v>
+        <v>0.8576208139284497</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2630997200986944</v>
+        <v>-0.2811491402700668</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6365258120472479</v>
+        <v>0.5945888636249396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1923993567146085</v>
+        <v>-0.1874126454138922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8201776138536733</v>
+        <v>0.7938584887048613</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5136241009190251</v>
+        <v>0.4371379596010149</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.956766590949566</v>
+        <v>1.953392766305594</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06151139452204528</v>
+        <v>0.06415173704489949</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.240446047843543</v>
+        <v>1.196476774576832</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1163138717823326</v>
+        <v>0.1190251440244814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.334830028309795</v>
+        <v>1.336731218246541</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.09794872239108489</v>
+        <v>0.07499020772131881</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.148371026704276</v>
+        <v>3.09398895293809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.366152494284442</v>
+        <v>-6.628394428708978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.730921175791725</v>
+        <v>6.306568339877323</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.062750078644977</v>
+        <v>-2.368740911039642</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.570504060283313</v>
+        <v>5.61171889573339</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.761962422815068</v>
+        <v>4.879793782835463</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.201259875123776</v>
+        <v>8.079684857444263</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.343771852368639</v>
+        <v>1.012720686308336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.490089036846</v>
+        <v>14.12804570117724</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.456397168812787</v>
+        <v>2.275428219890785</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.56252831613989</v>
+        <v>10.62827442290205</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09531876764160579</v>
+        <v>-0.1109142705621621</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.6774176756543007</v>
+        <v>0.7626326207564174</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5215306506745693</v>
+        <v>-0.5433284824785024</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5355624405812025</v>
+        <v>0.5037756796767058</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2959085331473996</v>
+        <v>-0.3214046321338994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7173167868917468</v>
+        <v>0.7218962621747437</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.33357375474787</v>
+        <v>3.489589601308901</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.614478923157517</v>
+        <v>6.574495689220763</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2132548274005111</v>
+        <v>0.1588143417903258</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.994967917216971</v>
+        <v>1.875633862635411</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5351215811054214</v>
+        <v>0.4987440432558188</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.317848622571746</v>
+        <v>2.244785849029392</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>0.09735995914493256</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.267353536597138</v>
+        <v>6.267353536597141</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-3.260276725817945</v>
@@ -1104,7 +1104,7 @@
         <v>-1.604104009406995</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.439825765070905</v>
+        <v>8.439825765070909</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.124616217978325</v>
+        <v>-1.125176838849618</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.732413755210065</v>
+        <v>4.869496186063609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.024267202664009</v>
+        <v>-5.002320187305203</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.661320157422233</v>
+        <v>8.471654742221951</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.687289499690491</v>
+        <v>-2.69022519262567</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.279362410729023</v>
+        <v>7.343212345958852</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.34057742675486</v>
+        <v>1.359836697539771</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.676956786523313</v>
+        <v>7.798796954409531</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.699379232118401</v>
+        <v>-1.504397364422068</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.30794234167275</v>
+        <v>12.12550664692819</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.4780119764611045</v>
+        <v>-0.4895457213660814</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.699398478604776</v>
+        <v>9.600671505685957</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>0.01463237830037937</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.9419302215728489</v>
+        <v>0.9419302215728492</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.1997087814872076</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.6372546366482165</v>
+        <v>0.6372546366482168</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1384917339500952</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7286597986083564</v>
+        <v>0.7286597986083567</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1535285027287932</v>
+        <v>-0.151485509538772</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6422593184835117</v>
+        <v>0.6548880456807157</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2948890141253889</v>
+        <v>-0.2904517936927348</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.496925791213847</v>
+        <v>0.4882916674801878</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2194756708207138</v>
+        <v>-0.2194368486236845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5916124193782123</v>
+        <v>0.5976166314552414</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2252261199761906</v>
+        <v>0.224839106413332</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.250405448008041</v>
+        <v>1.27965449333889</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1107719013778987</v>
+        <v>-0.0961748151213187</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8039842406272631</v>
+        <v>0.7862323363551061</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04131291881323531</v>
+        <v>-0.04472186905553465</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8804420912701837</v>
+        <v>0.8718442225939468</v>
       </c>
     </row>
     <row r="28">
